--- a/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D722A6-D044-154E-9257-2D965DE48E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E7847-8776-984B-88B9-52C9CE02624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -60,27 +60,6 @@
   </si>
   <si>
     <t>%New InPreSS Reduction</t>
-  </si>
-  <si>
-    <t>AssertionFailedError</t>
-  </si>
-  <si>
-    <t>NullPointerException</t>
-  </si>
-  <si>
-    <t>IndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t>IllegalArgumentException</t>
-  </si>
-  <si>
-    <t>ComparisonFailure</t>
-  </si>
-  <si>
-    <t>UnknownKeyException</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>%Old Reduction</t>
@@ -153,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -164,12 +143,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -194,10 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -513,20 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="33.83203125" customWidth="1"/>
-    <col min="17" max="18" width="33.83203125" customWidth="1"/>
+    <col min="16" max="17" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -555,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -566,17 +537,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -616,17 +584,14 @@
       <c r="M2" s="1">
         <v>50</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
         <v>2.12833333333333E-2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="O2" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -666,17 +631,14 @@
       <c r="M3" s="1">
         <v>37.5</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
         <v>2.8666666666666602E-3</v>
       </c>
-      <c r="P3" s="3">
+      <c r="O3" s="2">
         <v>2.1666666666666601E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -716,17 +678,14 @@
       <c r="M4" s="1">
         <v>60</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
         <v>1.0833333333333301E-2</v>
       </c>
-      <c r="P4" s="3">
+      <c r="O4" s="2">
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -766,17 +725,14 @@
       <c r="M5" s="1">
         <v>84.615384615384599</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5">
+      <c r="N5">
         <v>2.5833333333333298E-3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="O5" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -816,17 +772,14 @@
       <c r="M6" s="1">
         <v>90.109890109890102</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
         <v>5.3166666666666597E-3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="O6" s="2">
         <v>6.6666666666666602E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -866,17 +819,14 @@
       <c r="M7" s="1">
         <v>42.857142857142797</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="O7" s="2">
         <v>8.3333333333333303E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -916,17 +866,14 @@
       <c r="M8" s="1">
         <v>62.5</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8">
+      <c r="N8">
         <v>2.3833333333333302E-3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="O8" s="2">
         <v>3.16666666666666E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -966,17 +913,14 @@
       <c r="M9" s="1">
         <v>85.714285714285694</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="2">
         <v>4.1666666666666599E-4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="O9" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1016,17 +960,14 @@
       <c r="M10" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
         <v>3.61666666666666E-3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="O10" s="2">
         <v>3.3333333333333301E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1066,17 +1007,14 @@
       <c r="M11" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11">
+      <c r="N11">
         <v>4.6166666666666604E-3</v>
       </c>
-      <c r="P11" s="3">
+      <c r="O11" s="2">
         <v>6.6666666666666602E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1116,17 +1054,14 @@
       <c r="M12" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12">
+      <c r="N12">
         <v>3.61666666666666E-3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="O12" s="2">
         <v>8.3333333333333303E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1166,17 +1101,14 @@
       <c r="M13" s="1">
         <v>90</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
+      <c r="N13">
+        <v>2.5499999999999902E-3</v>
       </c>
       <c r="O13">
-        <v>2.5499999999999902E-3</v>
-      </c>
-      <c r="P13">
         <v>1.1166666666666599E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1216,17 +1148,14 @@
       <c r="M14" s="1">
         <v>87.5</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14">
+      <c r="N14">
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="O14" s="2">
         <v>9.33333333333333E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1266,17 +1195,14 @@
       <c r="M15" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>12</v>
+      <c r="N15">
+        <v>6.3499999999999997E-3</v>
       </c>
       <c r="O15">
-        <v>6.3499999999999997E-3</v>
-      </c>
-      <c r="P15">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1316,17 +1242,14 @@
       <c r="M16" s="1">
         <v>60</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
         <v>9.9666666666666601E-3</v>
       </c>
-      <c r="P16" s="3">
+      <c r="O16" s="2">
         <v>1.66666666666666E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -1366,17 +1289,14 @@
       <c r="M17" s="1">
         <v>95</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="2">
         <v>6.6666666666666602E-5</v>
       </c>
-      <c r="P17" s="3">
+      <c r="O17" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1416,17 +1336,14 @@
       <c r="M18" s="1">
         <v>45.454545454545404</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18">
+      <c r="N18">
         <v>5.6166666666666596E-3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="O18" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -1466,17 +1383,14 @@
       <c r="M19" s="1">
         <v>79.411764705882305</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19">
+      <c r="N19">
         <v>2.8500000000000001E-3</v>
       </c>
-      <c r="P19" s="3">
+      <c r="O19" s="2">
         <v>1.6666666666666601E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -1516,17 +1430,14 @@
       <c r="M20" s="1">
         <v>93.75</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20">
+      <c r="N20">
         <v>1.41833333333333E-2</v>
       </c>
-      <c r="P20" s="3">
+      <c r="O20" s="2">
         <v>3.3333333333333301E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -1566,17 +1477,14 @@
       <c r="M21" s="1">
         <v>96.998799519807903</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="N21" s="2">
         <v>9.16666666666666E-4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="O21" s="2">
         <v>5.6666666666666595E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -1616,17 +1524,14 @@
       <c r="M22" s="1">
         <v>80</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22">
+      <c r="N22">
         <v>5.1666666666666597E-3</v>
       </c>
-      <c r="P22" s="3">
+      <c r="O22" s="2">
         <v>9.6666666666666602E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -1666,17 +1571,14 @@
       <c r="M23" s="1">
         <v>80</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23">
+      <c r="N23">
         <v>2.5666666666666598E-3</v>
       </c>
-      <c r="P23" s="3">
+      <c r="O23" s="2">
         <v>5.3333333333333303E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -1716,24 +1618,21 @@
       <c r="M24" s="1">
         <v>80</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24">
+      <c r="N24">
         <v>0.23871666666666599</v>
       </c>
-      <c r="P24" s="3">
+      <c r="O24" s="2">
         <v>2.1666666666666601E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P27" s="3"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M24">
@@ -1747,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCFF30-3BCA-8B43-A880-4CB55D7086E5}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1758,52 +1657,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">

--- a/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E7847-8776-984B-88B9-52C9CE02624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6918F-80F4-2D49-96BF-549450B3858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +488,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Chart.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6918F-80F4-2D49-96BF-549450B3858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8BC419-9B50-094B-B501-A40A3ECE3151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
-    <sheet name="RQ2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bug ID</t>
   </si>
@@ -68,15 +67,6 @@
     <t>%New Reduction</t>
   </si>
   <si>
-    <t># Old mathched block</t>
-  </si>
-  <si>
-    <t># Old unmathched block</t>
-  </si>
-  <si>
-    <t># New unmathched block</t>
-  </si>
-  <si>
     <t>DSlice Time (Min)</t>
   </si>
   <si>
@@ -87,45 +77,6 @@
   </si>
   <si>
     <t>#New Chg</t>
-  </si>
-  <si>
-    <t>Old Match Avg.</t>
-  </si>
-  <si>
-    <t>Old Match Max</t>
-  </si>
-  <si>
-    <t>%Old Match Reduction</t>
-  </si>
-  <si>
-    <t>Old UnMatch Avg.</t>
-  </si>
-  <si>
-    <t>Old UnMatch Max</t>
-  </si>
-  <si>
-    <t>%Old UnMatch Reduction</t>
-  </si>
-  <si>
-    <t>New Match Avg.</t>
-  </si>
-  <si>
-    <t>New Match Max</t>
-  </si>
-  <si>
-    <t>%New Match Reduction</t>
-  </si>
-  <si>
-    <t>New UnMatch Avg.</t>
-  </si>
-  <si>
-    <t>New UnMatch Max</t>
-  </si>
-  <si>
-    <t>%New UnMatch Reduction</t>
-  </si>
-  <si>
-    <t># New mathched block</t>
   </si>
 </sst>
 </file>
@@ -511,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -529,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -538,10 +489,10 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1640,1314 +1591,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCFF30-3BCA-8B43-A880-4CB55D7086E5}">
-  <dimension ref="A1:R24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0.29498525073746301</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>335</v>
-      </c>
-      <c r="H2">
-        <v>335</v>
-      </c>
-      <c r="I2">
-        <v>98.5250737463126</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>12.5</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>37.5</v>
-      </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>7.1428571428571397</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>9.5</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>57.142857142857103</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>37.5</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3.5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3.5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>77.7777777777777</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>12.3333333333333</v>
-      </c>
-      <c r="P5">
-        <v>23</v>
-      </c>
-      <c r="Q5">
-        <v>84.615384615384599</v>
-      </c>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>4.4545454545454497</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>55.8823529411764</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>45</v>
-      </c>
-      <c r="P6">
-        <v>51</v>
-      </c>
-      <c r="Q6">
-        <v>90.109890109890102</v>
-      </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>7.4074074074074003</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>55.5555555555555</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1.5</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>42.857142857142797</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>71.428571428571402</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>62.5</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>12.5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3.5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>75</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>28.571428571428498</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>57.142857142857103</v>
-      </c>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>162</v>
-      </c>
-      <c r="H10">
-        <v>162</v>
-      </c>
-      <c r="I10">
-        <v>98.170731707317003</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>66.6666666666666</v>
-      </c>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>32</v>
-      </c>
-      <c r="P11">
-        <v>32</v>
-      </c>
-      <c r="Q11">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>10.5263157894736</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>57.894736842105203</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>16.6666666666666</v>
-      </c>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>4.8</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>55.072463768115902</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>38</v>
-      </c>
-      <c r="P13">
-        <v>38</v>
-      </c>
-      <c r="Q13">
-        <v>90</v>
-      </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>72.727272727272705</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14">
-        <v>87.5</v>
-      </c>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15">
-        <v>66.6666666666666</v>
-      </c>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1.5</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>1.5</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>40</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>20</v>
-      </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>19</v>
-      </c>
-      <c r="P17">
-        <v>19</v>
-      </c>
-      <c r="Q17">
-        <v>95</v>
-      </c>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>45.454545454545404</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>45.454545454545404</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>7.5</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>6.7415730337078603</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>12.1</v>
-      </c>
-      <c r="H19">
-        <v>41</v>
-      </c>
-      <c r="I19">
-        <v>61.797752808988697</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>7.5</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>32.352941176470502</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>9</v>
-      </c>
-      <c r="P19">
-        <v>16</v>
-      </c>
-      <c r="Q19">
-        <v>47.058823529411697</v>
-      </c>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>5.5</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <v>62.068965517241303</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>15</v>
-      </c>
-      <c r="P20">
-        <v>15</v>
-      </c>
-      <c r="Q20">
-        <v>93.75</v>
-      </c>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.88495575221238898</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>49</v>
-      </c>
-      <c r="H21">
-        <v>93</v>
-      </c>
-      <c r="I21">
-        <v>84.955752212389299</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.120048019207683</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>415.5</v>
-      </c>
-      <c r="P21">
-        <v>420</v>
-      </c>
-      <c r="Q21">
-        <v>96.878751500600202</v>
-      </c>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>226</v>
-      </c>
-      <c r="H22">
-        <v>226</v>
-      </c>
-      <c r="I22">
-        <v>98.689956331877696</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>4</v>
-      </c>
-      <c r="Q22">
-        <v>80</v>
-      </c>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>223</v>
-      </c>
-      <c r="H23">
-        <v>223</v>
-      </c>
-      <c r="I23">
-        <v>98.230088495575203</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>80</v>
-      </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>81.25</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24">
-        <v>80</v>
-      </c>
-      <c r="R24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>